--- a/data_wt_avg_comparison.xlsx
+++ b/data_wt_avg_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rhys/git/comp3200-learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672E6795-8A50-FD40-AA1E-CD1CEFC1C7CE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0E7021-7289-114A-8DBA-C82AEC4338DA}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="data_wt_avg" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -578,35 +577,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Original vs Predicted</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> (less concentrations)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -669,26 +639,41 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>data_wt_avg!$W$1:$AJ$1</c:f>
+              <c:f>data_wt_avg!$R$1:$AB$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.585</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="6">
                   <c:v>0.63100000000000001</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>0.39810000000000001</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
                   <c:v>0.25119999999999998</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
                   <c:v>0.1585</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -696,26 +681,41 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>data_wt_avg!$W$2:$AJ$2</c:f>
+              <c:f>data_wt_avg!$R$2:$AB$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>76.150333329999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>207.46466670000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>305.75958329999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>354.20383329999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>366.93983329999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>369.18258329999998</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="6">
                   <c:v>374.76425</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>370.315</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
                   <c:v>364.09866670000002</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
                   <c:v>345.02566669999999</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
                   <c:v>327.93185</c:v>
                 </c:pt>
               </c:numCache>
@@ -724,7 +724,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-724B-0143-BAFD-0BD12F5FB9D6}"/>
+              <c16:uniqueId val="{00000000-9C28-194C-9E13-B9CCA3DE22CF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -732,7 +732,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -755,26 +755,41 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>data_wt_avg!$W$1:$AJ$1</c:f>
+              <c:f>data_wt_avg!$R$1:$AB$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.585</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="6">
                   <c:v>0.63100000000000001</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>0.39810000000000001</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
                   <c:v>0.25119999999999998</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
                   <c:v>0.1585</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -782,27 +797,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>data_wt_avg!$W$3:$AJ$3</c:f>
+              <c:f>data_wt_avg!$R$3:$AB$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>331.23658139554101</c:v>
+                  <c:v>122.01094891441799</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>349.03593720823699</c:v>
+                  <c:v>176.059841634523</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>361.28956053803699</c:v>
+                  <c:v>244.39046363520799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>369.47094843711602</c:v>
+                  <c:v>323.60927817323</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>374.82719552505398</c:v>
+                  <c:v>406.82602874154702</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>384.35431476834401</c:v>
+                  <c:v>485.63505228318797</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>553.23517783382704</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>606.52298684672905</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>645.75476605493395</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>673.23466606770603</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>726.06358401755904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,7 +840,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-724B-0143-BAFD-0BD12F5FB9D6}"/>
+              <c16:uniqueId val="{00000001-9C28-194C-9E13-B9CCA3DE22CF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -822,11 +852,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1494138560"/>
-        <c:axId val="1539329920"/>
+        <c:axId val="1833169983"/>
+        <c:axId val="1833171679"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1494138560"/>
+        <c:axId val="1833169983"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -883,12 +913,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1539329920"/>
+        <c:crossAx val="1833171679"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1539329920"/>
+        <c:axId val="1833171679"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -945,693 +975,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1494138560"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Original</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> vs Predicted</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>data_wt_avg!$E$1:$AJ$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>1848</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1585</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1359</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>631</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>398.1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>251.2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>158.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>63.1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>39.81</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>25.12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15.85</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.31</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.9809999999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.512</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.585</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.63100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.39810000000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.25119999999999998</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.1585</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>data_wt_avg!$E$2:$AJ$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>3.7818333329999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.8337500000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.8979166670000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.7985000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.6298333329999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.7646666670000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.6742499999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.6524166669999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.0743333330000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.7035</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.2613333329999996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.40075</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>23.206083329999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>76.150333329999995</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>207.46466670000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>305.75958329999997</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>354.20383329999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>366.93983329999998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>369.18258329999998</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>374.76425</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>370.315</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>364.09866670000002</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>345.02566669999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>327.93185</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0EF4-E146-B24A-35AE2884F485}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>data_wt_avg!$E$1:$AJ$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>1848</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1585</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1359</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>631</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>398.1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>251.2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>158.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>63.1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>39.81</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>25.12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15.85</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.31</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.9809999999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.512</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.585</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.63100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.39810000000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.25119999999999998</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.1585</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>data_wt_avg!$E$3:$AJ$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>1.29260412046308</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5062461611289599</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7555888818898999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.3819394345221099</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.76123344310618</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.9277273923572897</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.31025163447325</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14.5493061170123</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>22.561046516531199</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>34.567852262135098</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>52.052261847965603</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>76.438353800946103</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>108.52143468918401</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>147.623092619337</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>191.04201438393599</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>234.59114288841599</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>273.98512379438199</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>306.46020829464999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>331.23658139554101</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>349.03593720823699</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>361.28956053803699</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>369.47094843711602</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>374.82719552505398</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>384.35431476834401</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0EF4-E146-B24A-35AE2884F485}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1494138560"/>
-        <c:axId val="1539329920"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1494138560"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1539329920"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1539329920"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1494138560"/>
+        <c:crossAx val="1833169983"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1758,46 +1102,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2314,549 +1618,31 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>111835</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>173251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>203199</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>227463</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>132686</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97517894-0EC9-7245-916A-292A22E53102}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F234CFA-8400-F44B-8988-DC9320343CFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2865,44 +1651,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0A158DE-659E-3C4A-B93B-26C01796078C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3208,10 +1956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB6"/>
+  <dimension ref="A1:AB3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="P41" sqref="P41"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3390,346 +2138,88 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>0.70056348975947302</v>
+        <v>0.42919155904858503</v>
       </c>
       <c r="B3">
-        <v>0.816558887833295</v>
+        <v>0.50035692358026396</v>
       </c>
       <c r="C3">
-        <v>0.951774598549738</v>
+        <v>0.58335103169777403</v>
       </c>
       <c r="D3">
-        <v>1.1095051997069101</v>
+        <v>0.68021454950770399</v>
       </c>
       <c r="E3">
-        <v>1.29260412046308</v>
+        <v>0.79272450424349195</v>
       </c>
       <c r="F3">
-        <v>1.5062461611289599</v>
+        <v>0.92409434288818804</v>
       </c>
       <c r="G3">
-        <v>1.7555888818898999</v>
+        <v>1.0775420078827</v>
       </c>
       <c r="H3">
-        <v>2.3819394345221099</v>
+        <v>1.46359980107578</v>
       </c>
       <c r="I3">
-        <v>3.76123344310618</v>
+        <v>2.3167615260081602</v>
       </c>
       <c r="J3">
-        <v>5.9277273923572897</v>
+        <v>3.6652917942688998</v>
       </c>
       <c r="K3">
-        <v>9.31025163447325</v>
+        <v>5.7916310843817103</v>
       </c>
       <c r="L3">
-        <v>14.5493061170123</v>
+        <v>9.1362898618125392</v>
       </c>
       <c r="M3">
-        <v>22.561046516531199</v>
+        <v>14.375200107748601</v>
       </c>
       <c r="N3">
-        <v>34.567852262135098</v>
+        <v>22.520868413669898</v>
       </c>
       <c r="O3">
-        <v>52.052261847965603</v>
+        <v>35.060017835095799</v>
       </c>
       <c r="P3">
-        <v>76.438353800946103</v>
+        <v>54.036955042523502</v>
       </c>
       <c r="Q3">
-        <v>108.52143468918401</v>
+        <v>82.068636004676904</v>
       </c>
       <c r="R3">
-        <v>147.623092619337</v>
+        <v>122.01094891441799</v>
       </c>
       <c r="S3">
-        <v>191.04201438393599</v>
+        <v>176.059841634523</v>
       </c>
       <c r="T3">
-        <v>234.59114288841599</v>
+        <v>244.39046363520799</v>
       </c>
       <c r="U3">
-        <v>273.98512379438199</v>
+        <v>323.60927817323</v>
       </c>
       <c r="V3">
-        <v>306.46020829464999</v>
+        <v>406.82602874154702</v>
       </c>
       <c r="W3">
-        <v>331.23658139554101</v>
+        <v>485.63505228318797</v>
       </c>
       <c r="X3">
-        <v>349.03593720823699</v>
+        <v>553.23517783382704</v>
       </c>
       <c r="Y3">
-        <v>361.28956053803699</v>
+        <v>606.52298684672905</v>
       </c>
       <c r="Z3">
-        <v>369.47094843711602</v>
+        <v>645.75476605493395</v>
       </c>
       <c r="AA3">
-        <v>374.82719552505398</v>
+        <v>673.23466606770603</v>
       </c>
       <c r="AB3">
-        <v>384.35431476834401</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>0.70056348975947302</v>
-      </c>
-      <c r="B4">
-        <v>0.816558887833295</v>
-      </c>
-      <c r="C4">
-        <v>0.951774598549738</v>
-      </c>
-      <c r="D4">
-        <v>1.1095051997069101</v>
-      </c>
-      <c r="E4">
-        <v>1.29260412046308</v>
-      </c>
-      <c r="F4">
-        <v>1.5062461611289599</v>
-      </c>
-      <c r="G4">
-        <v>1.7555888818898999</v>
-      </c>
-      <c r="H4">
-        <v>2.3819394345221099</v>
-      </c>
-      <c r="I4">
-        <v>3.76123344310618</v>
-      </c>
-      <c r="J4">
-        <v>5.9277273923572897</v>
-      </c>
-      <c r="K4">
-        <v>9.31025163447325</v>
-      </c>
-      <c r="L4">
-        <v>14.5493061170123</v>
-      </c>
-      <c r="M4">
-        <v>22.561046516531199</v>
-      </c>
-      <c r="N4">
-        <v>34.567852262135098</v>
-      </c>
-      <c r="O4">
-        <v>52.052261847965603</v>
-      </c>
-      <c r="P4">
-        <v>76.438353800946103</v>
-      </c>
-      <c r="Q4">
-        <v>108.52143468918401</v>
-      </c>
-      <c r="R4">
-        <v>147.623092619337</v>
-      </c>
-      <c r="S4">
-        <v>191.04201438393599</v>
-      </c>
-      <c r="T4">
-        <v>234.59114288841599</v>
-      </c>
-      <c r="U4">
-        <v>273.98512379438199</v>
-      </c>
-      <c r="V4">
-        <v>306.46020829464999</v>
-      </c>
-      <c r="W4">
-        <v>331.23658139554101</v>
-      </c>
-      <c r="X4">
-        <v>349.03593720823699</v>
-      </c>
-      <c r="Y4">
-        <v>361.28956053803699</v>
-      </c>
-      <c r="Z4">
-        <v>369.47094843711602</v>
-      </c>
-      <c r="AA4">
-        <v>374.82719552505398</v>
-      </c>
-      <c r="AB4">
-        <v>384.35431476834401</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>0.70056348975947702</v>
-      </c>
-      <c r="B5">
-        <v>0.816558887833299</v>
-      </c>
-      <c r="C5">
-        <v>0.951774598549743</v>
-      </c>
-      <c r="D5">
-        <v>1.1095051997069201</v>
-      </c>
-      <c r="E5">
-        <v>1.29260412046309</v>
-      </c>
-      <c r="F5">
-        <v>1.5062461611289699</v>
-      </c>
-      <c r="G5">
-        <v>1.7555888818899099</v>
-      </c>
-      <c r="H5">
-        <v>2.3819394345221201</v>
-      </c>
-      <c r="I5">
-        <v>3.7612334431062</v>
-      </c>
-      <c r="J5">
-        <v>5.9277273923573199</v>
-      </c>
-      <c r="K5">
-        <v>9.3102516344732997</v>
-      </c>
-      <c r="L5">
-        <v>14.549306117012399</v>
-      </c>
-      <c r="M5">
-        <v>22.561046516531299</v>
-      </c>
-      <c r="N5">
-        <v>34.567852262135297</v>
-      </c>
-      <c r="O5">
-        <v>52.052261847965802</v>
-      </c>
-      <c r="P5">
-        <v>76.438353800946402</v>
-      </c>
-      <c r="Q5">
-        <v>108.52143468918401</v>
-      </c>
-      <c r="R5">
-        <v>147.623092619338</v>
-      </c>
-      <c r="S5">
-        <v>191.04201438393599</v>
-      </c>
-      <c r="T5">
-        <v>234.59114288841701</v>
-      </c>
-      <c r="U5">
-        <v>273.98512379438199</v>
-      </c>
-      <c r="V5">
-        <v>306.46020829464999</v>
-      </c>
-      <c r="W5">
-        <v>331.23658139554101</v>
-      </c>
-      <c r="X5">
-        <v>349.03593720823699</v>
-      </c>
-      <c r="Y5">
-        <v>361.28956053803699</v>
-      </c>
-      <c r="Z5">
-        <v>369.470948437115</v>
-      </c>
-      <c r="AA5">
-        <v>374.82719552505398</v>
-      </c>
-      <c r="AB5">
-        <v>384.35431476834401</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>0.70056348976017901</v>
-      </c>
-      <c r="B6">
-        <v>0.81655888783411701</v>
-      </c>
-      <c r="C6">
-        <v>0.95177459855069602</v>
-      </c>
-      <c r="D6">
-        <v>1.1095051997080301</v>
-      </c>
-      <c r="E6">
-        <v>1.2926041204643799</v>
-      </c>
-      <c r="F6">
-        <v>1.5062461611304701</v>
-      </c>
-      <c r="G6">
-        <v>1.7555888818916701</v>
-      </c>
-      <c r="H6">
-        <v>2.3819394345244902</v>
-      </c>
-      <c r="I6">
-        <v>3.7612334431099401</v>
-      </c>
-      <c r="J6">
-        <v>5.9277273923631597</v>
-      </c>
-      <c r="K6">
-        <v>9.3102516344823698</v>
-      </c>
-      <c r="L6">
-        <v>14.549306117026299</v>
-      </c>
-      <c r="M6">
-        <v>22.561046516552299</v>
-      </c>
-      <c r="N6">
-        <v>34.567852262166099</v>
-      </c>
-      <c r="O6">
-        <v>52.052261848009202</v>
-      </c>
-      <c r="P6">
-        <v>76.438353801003899</v>
-      </c>
-      <c r="Q6">
-        <v>108.52143468925399</v>
-      </c>
-      <c r="R6">
-        <v>147.623092619414</v>
-      </c>
-      <c r="S6">
-        <v>191.04201438400699</v>
-      </c>
-      <c r="T6">
-        <v>234.59114288847101</v>
-      </c>
-      <c r="U6">
-        <v>273.98512379441001</v>
-      </c>
-      <c r="V6">
-        <v>306.460208294648</v>
-      </c>
-      <c r="W6">
-        <v>331.23658139551202</v>
-      </c>
-      <c r="X6">
-        <v>349.03593720818498</v>
-      </c>
-      <c r="Y6">
-        <v>361.28956053796901</v>
-      </c>
-      <c r="Z6">
-        <v>369.47094843703599</v>
-      </c>
-      <c r="AA6">
-        <v>374.82719552496701</v>
-      </c>
-      <c r="AB6">
-        <v>384.35431476824198</v>
+        <v>726.06358401755904</v>
       </c>
     </row>
   </sheetData>
